--- a/biology/Botanique/Xanthostemon_aurantiacus/Xanthostemon_aurantiacus.xlsx
+++ b/biology/Botanique/Xanthostemon_aurantiacus/Xanthostemon_aurantiacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthostemon aurantiacus est une espèce d’arbustes de la famille des Myrtaceae. Endémique, on ne la rencontre qu'en Nouvelle-Calédonie.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbrisseau ou arbuste[1]. Il mesure entre 50 centimètres et 3 mètres de haut[2].
-Feuilles
-Les feuilles, alternes et pétiolées, sont épaisses, coriaces, plates et spatulées, arrondies ou rétuses au sommet, atténuées à la base. Leur revers est couverts d'une pruine blanchâtre en dessous ; les nervures y sont visibles[1].
-Fleurs
-Les fleurs sont pédicellées. Leurs pétales sont rouges et leurs étamines jaunes). Elles compte 20 à 25 étamines[1]. La floraison court de novembre à avril, avec un pic en mars[3],[4].
-Fruits
-Les fruits sont des capsules ligneuses, glabres, avec 4 loges[1]. Ils mesurent entre 12 et 15 millimètres[4].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbrisseau ou arbuste. Il mesure entre 50 centimètres et 3 mètres de haut.
 </t>
         </is>
       </c>
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est l'une des premières de Nouvelle-Calédonie à avoir été exportées en Europe ; cela a eu lieu en 1861 à l'initiative de Pancher[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, alternes et pétiolées, sont épaisses, coriaces, plates et spatulées, arrondies ou rétuses au sommet, atténuées à la base. Leur revers est couverts d'une pruine blanchâtre en dessous ; les nervures y sont visibles.
 </t>
         </is>
       </c>
@@ -577,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se trouve au sud de la Grande Terre[1], à 30 à 700 mètres d'altitude, surtout dans les secteurs humides[3].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont pédicellées. Leurs pétales sont rouges et leurs étamines jaunes). Elles compte 20 à 25 étamines. La floraison court de novembre à avril, avec un pic en mars,.
 </t>
         </is>
       </c>
@@ -608,12 +631,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Philatélie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un timbre de 2 francs pacifiques de l'OPT de 1983 met à l'honneur cette espèce[3].
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules ligneuses, glabres, avec 4 loges. Ils mesurent entre 12 et 15 millimètres.
 </t>
         </is>
       </c>
@@ -639,12 +668,113 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est l'une des premières de Nouvelle-Calédonie à avoir été exportées en Europe ; cela a eu lieu en 1861 à l'initiative de Pancher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xanthostemon_aurantiacus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthostemon_aurantiacus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve au sud de la Grande Terre, à 30 à 700 mètres d'altitude, surtout dans les secteurs humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xanthostemon_aurantiacus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthostemon_aurantiacus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un timbre de 2 francs pacifiques de l'OPT de 1983 met à l'honneur cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xanthostemon_aurantiacus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthostemon_aurantiacus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Numismatique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce figurait sur les billets de 5000 francs pacifiques entre 2001 et 2014[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce figurait sur les billets de 5000 francs pacifiques entre 2001 et 2014.
 </t>
         </is>
       </c>
